--- a/currentbuild/StructureDefinition-municipal-documentreference.xlsx
+++ b/currentbuild/StructureDefinition-municipal-documentreference.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-03T11:05:03+00:00</t>
+    <t>2025-06-11T10:23:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
